--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1084.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1084.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.035297296941458</v>
+        <v>1.181780576705933</v>
       </c>
       <c r="B1">
-        <v>2.218737276986556</v>
+        <v>2.423226118087769</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>1.927059436181615</v>
+        <v>2.325670719146729</v>
       </c>
       <c r="E1">
-        <v>1.263594234747445</v>
+        <v>1.190549850463867</v>
       </c>
     </row>
   </sheetData>
